--- a/Doc/1. 프로토콜/PC연동_프로토콜_V3_251113.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V3_251113.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52390C-D6F7-429E-8393-F657ED591A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6188F6A-FCA9-4780-9E74-97C89278FAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="-15" windowWidth="21720" windowHeight="13620" firstSheet="2" activeTab="3" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
+    <workbookView xWindow="14303" yWindow="-52" windowWidth="21795" windowHeight="13694" firstSheet="2" activeTab="2" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId1"/>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제빙 트레이 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0 : 제빙
 1 : 중간
 2 : 탈빙 </t>
@@ -810,6 +806,10 @@
   </si>
   <si>
     <t>리드스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,6 +1110,48 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,74 +1164,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,607 +1594,663 @@
       <c r="L3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40"/>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="41" t="s">
+      <c r="E4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="2:65" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="42" t="s">
+      <c r="H6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:65" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="38">
         <v>20</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="38">
         <v>1</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="35" t="s">
+      <c r="F10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="38">
         <v>5</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="35" t="s">
+      <c r="I12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="43">
         <v>4</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="35" t="s">
+      <c r="K14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="43">
         <v>7</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="43">
         <v>4</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="35" t="s">
+      <c r="I18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="38">
         <v>93</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="32"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="38">
         <v>7</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="35" t="s">
+      <c r="K22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="M3:BM3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
@@ -2219,75 +2275,19 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="M3:BM3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DA00FB-797A-4EF3-AE36-C2C62770D12C}">
   <dimension ref="B1:F1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2461,17 +2461,17 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="18" t="s">
         <v>106</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="D4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="43" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       <c r="D5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
@@ -2517,7 +2517,7 @@
       <c r="D6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -2531,7 +2531,7 @@
       <c r="D7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -2544,7 +2544,7 @@
       <c r="D8" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
@@ -2557,7 +2557,7 @@
       <c r="D9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
@@ -2570,7 +2570,7 @@
       <c r="D10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -2583,7 +2583,7 @@
       <c r="D11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
@@ -2596,7 +2596,7 @@
       <c r="D12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
@@ -2609,7 +2609,7 @@
       <c r="D13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
@@ -2622,7 +2622,7 @@
       <c r="D14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
@@ -2635,7 +2635,7 @@
       <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
@@ -2648,7 +2648,7 @@
       <c r="D16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
@@ -2658,10 +2658,10 @@
       <c r="C17" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="43" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2673,8 +2673,8 @@
       <c r="C18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
@@ -2684,8 +2684,8 @@
       <c r="C19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
@@ -2695,8 +2695,8 @@
       <c r="C20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
@@ -2706,8 +2706,8 @@
       <c r="C21" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
@@ -2717,10 +2717,10 @@
       <c r="C22" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
@@ -2730,8 +2730,8 @@
       <c r="C23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
@@ -2741,8 +2741,8 @@
       <c r="C24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
@@ -2752,8 +2752,8 @@
       <c r="C25" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
@@ -2763,8 +2763,8 @@
       <c r="C26" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
@@ -2774,8 +2774,8 @@
       <c r="C27" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="22">
@@ -2785,8 +2785,8 @@
       <c r="C28" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="22">
@@ -2796,8 +2796,8 @@
       <c r="C29" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
@@ -2807,8 +2807,8 @@
       <c r="C30" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="22">
@@ -2818,8 +2818,8 @@
       <c r="C31" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
@@ -2829,8 +2829,8 @@
       <c r="C32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="30"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
@@ -2840,8 +2840,8 @@
       <c r="C33" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="22">
@@ -2851,8 +2851,8 @@
       <c r="C34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="22">
@@ -2862,8 +2862,8 @@
       <c r="C35" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="22">
@@ -2873,8 +2873,8 @@
       <c r="C36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="22">
@@ -2887,7 +2887,7 @@
       <c r="D37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="22">
@@ -2900,7 +2900,7 @@
       <c r="D38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="22">
@@ -2913,7 +2913,7 @@
       <c r="D39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="22">
@@ -2926,7 +2926,7 @@
       <c r="D40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="22">
@@ -2939,7 +2939,7 @@
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
@@ -2947,13 +2947,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>188</v>
+      <c r="E42" s="43" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -2962,15 +2962,15 @@
         <v>40</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="1048576" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D1048576" s="51"/>
+      <c r="D1048576" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCEF8A9-E83E-4FAC-9D94-CD5B37E5D849}">
   <dimension ref="B1:F1048575"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3013,17 +3013,17 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>106</v>
       </c>
@@ -3039,9 +3039,9 @@
         <v>117</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3054,9 +3054,9 @@
         <v>118</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="32"/>
+        <v>182</v>
+      </c>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
@@ -3064,12 +3064,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
@@ -3077,12 +3077,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
@@ -3090,12 +3090,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
@@ -3103,12 +3103,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
@@ -3116,12 +3116,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
@@ -3134,7 +3134,7 @@
       <c r="D11" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
@@ -3147,7 +3147,7 @@
       <c r="D12" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
@@ -3160,7 +3160,7 @@
       <c r="D13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
@@ -3173,7 +3173,7 @@
       <c r="D14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
@@ -3186,7 +3186,7 @@
       <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
@@ -3199,7 +3199,7 @@
       <c r="D16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
@@ -3212,7 +3212,7 @@
       <c r="D17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
@@ -3225,7 +3225,7 @@
       <c r="D18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
@@ -3238,7 +3238,7 @@
       <c r="D19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="36" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="D20" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
@@ -3266,7 +3266,7 @@
       <c r="D21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
@@ -3279,7 +3279,7 @@
       <c r="D22" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
@@ -3292,7 +3292,7 @@
       <c r="D23" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
@@ -3300,12 +3300,12 @@
         <v>21</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
@@ -3313,12 +3313,12 @@
         <v>22</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
@@ -3331,7 +3331,7 @@
       <c r="D26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
@@ -3344,7 +3344,7 @@
       <c r="D27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="22">
@@ -3357,7 +3357,7 @@
       <c r="D28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="22">
@@ -3370,7 +3370,7 @@
       <c r="D29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
@@ -3381,9 +3381,9 @@
         <v>79</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="D31" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="51"/>
       <c r="F31" t="s">
         <v>123</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="D32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="22">
@@ -3427,7 +3427,7 @@
       <c r="D33" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="44"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="22">
@@ -3440,7 +3440,7 @@
       <c r="D34" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="22">
@@ -3453,7 +3453,7 @@
       <c r="D35" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="22">
@@ -3464,9 +3464,9 @@
         <v>23</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="44"/>
+        <v>174</v>
+      </c>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="22">
@@ -3479,7 +3479,7 @@
       <c r="D37" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="44"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="22">
@@ -3487,12 +3487,12 @@
         <v>35</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" s="22">
@@ -3500,12 +3500,12 @@
         <v>36</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="44"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="22">
@@ -3518,7 +3518,7 @@
       <c r="D40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="44"/>
+      <c r="E40" s="51"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="22">
@@ -3531,7 +3531,7 @@
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="51"/>
     </row>
     <row r="42" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
@@ -3539,12 +3539,12 @@
         <v>39</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="44"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="22">
@@ -3552,12 +3552,12 @@
         <v>40</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="44"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="22">
@@ -3570,7 +3570,7 @@
       <c r="D44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="44"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="22">
@@ -3583,7 +3583,7 @@
       <c r="D45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="44"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="22">
@@ -3596,7 +3596,7 @@
       <c r="D46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="44"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="22">
@@ -3609,7 +3609,7 @@
       <c r="D47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="44"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="22">
@@ -3622,7 +3622,7 @@
       <c r="D48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="22">
@@ -3635,7 +3635,7 @@
       <c r="D49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="34"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="22">
@@ -3646,7 +3646,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="22"/>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="36" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       <c r="D51" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="32"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="22">
@@ -3674,7 +3674,7 @@
       <c r="D52" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="32"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="22">
@@ -3687,7 +3687,7 @@
       <c r="D53" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="32"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B54" s="22">
@@ -3698,9 +3698,9 @@
         <v>135</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="32"/>
+        <v>167</v>
+      </c>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="22">
@@ -3713,7 +3713,7 @@
       <c r="D55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="32"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="22">
@@ -3726,7 +3726,7 @@
       <c r="D56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="32"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="22">
@@ -3739,7 +3739,7 @@
       <c r="D57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="32"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="22">
@@ -3752,7 +3752,7 @@
       <c r="D58" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="32"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="22">
@@ -3765,7 +3765,7 @@
       <c r="D59" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="32"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="22">
@@ -3778,7 +3778,7 @@
       <c r="D60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="32"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="22">
@@ -3791,7 +3791,7 @@
       <c r="D61" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="32"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="22">
@@ -3804,7 +3804,7 @@
       <c r="D62" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="32"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="22">
@@ -3817,7 +3817,7 @@
       <c r="D63" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="32"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="22">
@@ -3830,7 +3830,7 @@
       <c r="D64" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="32"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
@@ -3843,7 +3843,7 @@
       <c r="D65" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="43" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       <c r="D66" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="30"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B67" s="22">
@@ -3871,7 +3871,7 @@
       <c r="D67" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="30"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B68" s="22">
@@ -3884,7 +3884,7 @@
       <c r="D68" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="30"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="22">
@@ -3897,7 +3897,7 @@
       <c r="D69" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="30"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="22">
@@ -3910,7 +3910,7 @@
       <c r="D70" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="30"/>
+      <c r="E70" s="43"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="22">
@@ -3923,7 +3923,7 @@
       <c r="D71" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="30"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="22">
@@ -3936,7 +3936,7 @@
       <c r="D72" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="30"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="22">
@@ -3949,7 +3949,7 @@
       <c r="D73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
@@ -3957,13 +3957,13 @@
         <v>71</v>
       </c>
       <c r="C74" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="E74" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
@@ -4065,17 +4065,17 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="24" t="s">
         <v>106</v>
       </c>
@@ -4087,169 +4087,169 @@
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="32"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="32"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="44"/>
+      <c r="E31" s="51"/>
       <c r="F31" t="s">
         <v>123</v>
       </c>
@@ -4258,199 +4258,199 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="44"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="44"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="44"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="44"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="44"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="44"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="44"/>
+      <c r="E40" s="51"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="44"/>
+      <c r="E41" s="51"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="44"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="44"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="44"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="44"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="44"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="44"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="44"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="34"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="32"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
-      <c r="E52" s="32"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="32"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="32"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="32"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="32"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="32"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="32"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="32"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="32"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="32"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="32"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="32"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
@@ -4493,12 +4493,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E50:E64"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E4:E18"/>
     <mergeCell ref="E19:E29"/>
     <mergeCell ref="E30:E49"/>
-    <mergeCell ref="E50:E64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
